--- a/participants/participant_20/participant_20_task_orders.xlsx
+++ b/participants/participant_20/participant_20_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730650352504" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730675841892" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730675851526" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730676331525" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730676934175" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502911847146533" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502911873156693" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291187317667" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502911873636718" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502911874256742" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730650012045.csv</t>
+          <t>go_stims-16502911846796513.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873065018204.csv</t>
+          <t>GNG_stims-16502911846966484.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730650192118.csv</t>
+          <t>go_stims-16502911846986635.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730650342395.csv</t>
+          <t>GNG_stims-16502911847136524.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16498730668421874.csv</t>
+          <t>OB-16502911866206748.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1649873065955192.csv</t>
+          <t>ZB-match_6-16502911855806491.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_6-164987306542816.csv</t>
+          <t>OB-16502911856986487.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498730653801706.csv</t>
+          <t>ZB-match_3-16502911852736638.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16498730675561876.csv</t>
+          <t>TB-16502911873026674.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730658051872.csv</t>
+          <t>TB-1650291186734665.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_9-16498730657601843.csv</t>
+          <t>ZB-match_8-16502911850376484.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1649873066579154.csv</t>
+          <t>OB-16502911856356516.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16498730674121876.csv</t>
+          <t>TB-16502911868376791.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730676001873.csv</t>
+          <t>MM_stims-16502911873306684.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730675871513.csv</t>
+          <t>ZM_stims-16502911873196678.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730676161516.csv</t>
+          <t>MM_stims-16502911873466687.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730676011522.csv</t>
+          <t>ZM_stims-16502911873316674.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730676321876.csv</t>
+          <t>MM_stims-1650291187362672.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730676171541.csv</t>
+          <t>ZM_stims-16502911873476713.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730676371522.csv</t>
+          <t>vSAT_stims-16502911874106686.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873067678154.csv</t>
+          <t>vSAT_stims-16502911873956687.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873067648156.csv</t>
+          <t>SAT_stims-16502911873787093.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1649873067663188.csv</t>
+          <t>SAT_stims-16502911873676696.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_20/participant_20_task_orders.xlsx
+++ b/participants/participant_20/participant_20_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502911847146533" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502911873156693" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291187317667" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502911873636718" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502911874256742" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778218458996" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778244478853" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650477824448882" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778244959104" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778245598798" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502911846796513.csv</t>
+          <t>go_stims-1650477821801879.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911846966484.csv</t>
+          <t>GNG_stims-16504778218278792.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502911846986635.csv</t>
+          <t>go_stims-16504778218288815.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502911847136524.csv</t>
+          <t>GNG_stims-16504778218438785.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502911866206748.csv</t>
+          <t>OB-16504778225988781.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502911855806491.csv</t>
+          <t>OB-16504778227078753.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502911856986487.csv</t>
+          <t>TB-16504778236099095.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-16502911852736638.csv</t>
+          <t>OB-1650477822992913.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502911873026674.csv</t>
+          <t>ZB-match_1-16504778220438795.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650291186734665.csv</t>
+          <t>ZB-match_5-16504778222678788.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_8-16502911850376484.csv</t>
+          <t>TB-16504778233718762.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16502911856356516.csv</t>
+          <t>ZB-match_0-1650477822219878.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502911868376791.csv</t>
+          <t>TB-1650477824428908.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502911873306684.csv</t>
+          <t>MM_stims-16504778244638805.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911873196678.csv</t>
+          <t>ZM_stims-1650477824450883.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502911873466687.csv</t>
+          <t>MM_stims-16504778244799113.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911873316674.csv</t>
+          <t>ZM_stims-1650477824464878.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650291187362672.csv</t>
+          <t>MM_stims-16504778244959104.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502911873476713.csv</t>
+          <t>ZM_stims-1650477824480878.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911874106686.csv</t>
+          <t>SAT_stims-16504778245128775.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502911873956687.csv</t>
+          <t>SAT_stims-165047782449888.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911873787093.csv</t>
+          <t>vSAT_stims-16504778245279112.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16502911873676696.csv</t>
+          <t>vSAT_stims-16504778245439112.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_20/participant_20_task_orders.xlsx
+++ b/participants/participant_20/participant_20_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778218458996" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778244478853" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650477824448882" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778244959104" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778245598798" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961119704132" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996113754445" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996113754445" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961138023832" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961138664203" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650477821801879.csv</t>
+          <t>go_stims-1650996111930376.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778218278792.csv</t>
+          <t>GNG_stims-16509961119544177.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778218288815.csv</t>
+          <t>go_stims-16509961119544177.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778218438785.csv</t>
+          <t>GNG_stims-16509961119704132.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16504778225988781.csv</t>
+          <t>TB-16509961133784156.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778227078753.csv</t>
+          <t>ZB-match_9-16509961127543786.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16504778236099095.csv</t>
+          <t>ZB-match_0-1650996112562412.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-1650477822992913.csv</t>
+          <t>OB-16509961131944103.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778220438795.csv</t>
+          <t>ZB-match_4-16509961124183767.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_5-16504778222678788.csv</t>
+          <t>TB-1650996113722417.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778233718762.csv</t>
+          <t>OB-16509961128263743.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650477822219878.csv</t>
+          <t>OB-16509961131624124.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650477824428908.csv</t>
+          <t>TB-1650996113738425.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778244638805.csv</t>
+          <t>MM_stims-1650996113770411.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477824450883.csv</t>
+          <t>ZM_stims-1650996113754445.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778244799113.csv</t>
+          <t>MM_stims-16509961137863753.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477824464878.csv</t>
+          <t>ZM_stims-1650996113770411.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778244959104.csv</t>
+          <t>MM_stims-16509961138023832.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477824480878.csv</t>
+          <t>ZM_stims-16509961137863753.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778245128775.csv</t>
+          <t>SAT_stims-16509961138184118.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-165047782449888.csv</t>
+          <t>vSAT_stims-16509961138344178.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778245279112.csv</t>
+          <t>SAT_stims-16509961138023832.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778245439112.csv</t>
+          <t>vSAT_stims-16509961138503747.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_20/participant_20_task_orders.xlsx
+++ b/participants/participant_20/participant_20_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961119704132" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996113754445" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996113754445" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961138023832" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961138664203" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168709293581" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687126773167" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651168712679236" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687127397335" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687128156505" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996111930376.csv</t>
+          <t>go_stims-16511687092515771.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961119544177.csv</t>
+          <t>GNG_stims-16511687092765791.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961119544177.csv</t>
+          <t>go_stims-16511687092785795.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961119704132.csv</t>
+          <t>GNG_stims-1651168709292577.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16509961133784156.csv</t>
+          <t>TB-16511687116331182.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_9-16509961127543786.csv</t>
+          <t>OB-16511687097215207.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650996112562412.csv</t>
+          <t>ZB-match_0-16511687096469696.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16509961131944103.csv</t>
+          <t>OB-16511687109330406.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-16509961124183767.csv</t>
+          <t>TB-16511687118523893.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1650996113722417.csv</t>
+          <t>OB-1651168710704904.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16509961128263743.csv</t>
+          <t>ZB-match_0-16511687095087662.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961131624124.csv</t>
+          <t>TB-16511687126514444.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650996113738425.csv</t>
+          <t>ZB-match_9-16511687093705802.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650996113770411.csv</t>
+          <t>MM_stims-1651168712707984.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996113754445.csv</t>
+          <t>ZM_stims-165116871268223.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16509961137863753.csv</t>
+          <t>MM_stims-1651168712723266.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996113770411.csv</t>
+          <t>ZM_stims-16511687127089481.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961138023832.csv</t>
+          <t>MM_stims-16511687127387373.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961137863753.csv</t>
+          <t>ZM_stims-1651168712724254.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961138184118.csv</t>
+          <t>vSAT_stims-16511687127850873.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961138344178.csv</t>
+          <t>SAT_stims-16511687127694857.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961138023832.csv</t>
+          <t>vSAT_stims-16511687128000188.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961138503747.csv</t>
+          <t>SAT_stims-16511687127437363.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_20/participant_20_task_orders.xlsx
+++ b/participants/participant_20/participant_20_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168709293581" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687126773167" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651168712679236" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687127397335" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687128156505" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555350024083" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555370722148" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255537078218" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255537137214" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555372162137" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687092515771.csv</t>
+          <t>go_stims-16512555349584014.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687092765791.csv</t>
+          <t>GNG_stims-16512555349853992.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687092785795.csv</t>
+          <t>go_stims-16512555349874117.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168709292577.csv</t>
+          <t>GNG_stims-16512555350014086.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687116331182.csv</t>
+          <t>ZB-match_4-1651255535336214.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16511687097215207.csv</t>
+          <t>TB-16512555362112145.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687096469696.csv</t>
+          <t>ZB-match_1-16512555350944104.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511687109330406.csv</t>
+          <t>OB-16512555358282135.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16511687118523893.csv</t>
+          <t>TB-16512555370502155.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-1651168710704904.csv</t>
+          <t>OB-1651255536184218.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687095087662.csv</t>
+          <t>ZB-match_8-1651255535029402.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511687126514444.csv</t>
+          <t>TB-16512555363792148.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511687093705802.csv</t>
+          <t>OB-1651255535609213.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1651168712707984.csv</t>
+          <t>MM_stims-16512555371042135.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-165116871268223.csv</t>
+          <t>ZM_stims-16512555370802197.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168712723266.csv</t>
+          <t>MM_stims-1651255537120215.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687127089481.csv</t>
+          <t>ZM_stims-165125553710522.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687127387373.csv</t>
+          <t>MM_stims-16512555371362162.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168712724254.csv</t>
+          <t>ZM_stims-16512555371212165.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687127850873.csv</t>
+          <t>vSAT_stims-1651255537184214.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687127694857.csv</t>
+          <t>SAT_stims-165125553714122.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687128000188.csv</t>
+          <t>SAT_stims-1651255537168215.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687127437363.csv</t>
+          <t>vSAT_stims-1651255537200213.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_20/participant_20_task_orders.xlsx
+++ b/participants/participant_20/participant_20_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555350024083" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555370722148" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255537078218" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255537137214" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555372162137" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RS_TO-16515889675295417" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="GNG_TO-16515889675695746" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-1651588967645024" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515889677121215" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-165158896979931" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555349584014.csv</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -460,27 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555349853992.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>go_stims-16512555349874117.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GNG_stims-16512555350014086.csv</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -495,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651255535336214.csv</t>
+          <t>go_stims-16515889675331328.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555362112145.csv</t>
+          <t>GNG_stims-16515889675514083.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +516,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_1-16512555350944104.csv</t>
+          <t>go_stims-16515889675534108.csv</t>
         </is>
       </c>
     </row>
@@ -546,57 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16512555358282135.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TB-16512555370502155.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OB-1651255536184218.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ZB-match_8-1651255535029402.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TB-16512555363792148.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-1651255535609213.csv</t>
+          <t>GNG_stims-16515889675684946.csv</t>
         </is>
       </c>
     </row>
@@ -611,7 +541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,7 +562,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>vSAT_stims-16515889676306102.csv</t>
         </is>
       </c>
     </row>
@@ -642,7 +572,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>vSAT_stims-1651588967613811.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889675980754.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SAT_stims-1651588967576935.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555371042135.csv</t>
+          <t>MM_stims-1651588967676288.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555370802197.csv</t>
+          <t>ZM_stims-16515889676522746.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651255537120215.csv</t>
+          <t>MM_stims-16515889676922998.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-165125553710522.csv</t>
+          <t>ZM_stims-16515889676782758.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555371362162.csv</t>
+          <t>MM_stims-1651588967711121.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555371212165.csv</t>
+          <t>ZM_stims-16515889676932728.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255537184214.csv</t>
+          <t>TB-16515889697747633.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-165125553714122.csv</t>
+          <t>OB-16515889685906258.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255537168215.csv</t>
+          <t>OB-16515889689589708.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255537200213.csv</t>
+          <t>ZB-match_9-16515889679291706.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TB-16515889689775045.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>OB-1651588968415669.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TB-16515889696432564.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_0-16515889679909225.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ZB-match_5-16515889680279288.csv</t>
         </is>
       </c>
     </row>
